--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -148,15 +148,15 @@
     <t>clean</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -169,10 +169,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>update</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>update</t>
   </si>
   <si>
     <t>gt</t>
@@ -1814,25 +1814,25 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.6939655172413793</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L27">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1840,13 +1840,13 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.6862745098039216</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1866,13 +1866,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.6857142857142857</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1996,25 +1996,25 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.6128048780487805</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L34">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>127</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2022,13 +2022,13 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.6060606060606061</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="10:17">
